--- a/scraper/top_remaining_spreadsheets_states/top_remaining_MN.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_MN.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>STATE</t>
   </si>
@@ -44,54 +44,48 @@
     <t>Aces High</t>
   </si>
   <si>
+    <t>2019-03-12</t>
+  </si>
+  <si>
+    <t>Naughty or Nice</t>
+  </si>
+  <si>
+    <t>Grumpy Cat</t>
+  </si>
+  <si>
+    <t>5x The Cash</t>
+  </si>
+  <si>
+    <t>982(r)</t>
+  </si>
+  <si>
+    <t>Loose Change</t>
+  </si>
+  <si>
+    <t>$2.00 Games</t>
+  </si>
+  <si>
+    <t>Flannel Fever</t>
+  </si>
+  <si>
+    <t>Day of the Dead</t>
+  </si>
+  <si>
+    <t>Lucky Dog</t>
+  </si>
+  <si>
+    <t>Frosty Fun</t>
+  </si>
+  <si>
+    <t>SKOL</t>
+  </si>
+  <si>
     <t>2019-03-07</t>
   </si>
   <si>
-    <t>Naughty or Nice</t>
-  </si>
-  <si>
-    <t>Grumpy Cat</t>
-  </si>
-  <si>
-    <t>Loose Change</t>
-  </si>
-  <si>
-    <t>5x The Cash</t>
-  </si>
-  <si>
-    <t>982(r)</t>
-  </si>
-  <si>
-    <t>Goat Load of Cash</t>
-  </si>
-  <si>
-    <t>2019-02-06</t>
-  </si>
-  <si>
-    <t>$2.00 Games</t>
-  </si>
-  <si>
-    <t>Flannel Fever</t>
-  </si>
-  <si>
-    <t>Day of the Dead</t>
-  </si>
-  <si>
-    <t>Lucky Dog</t>
-  </si>
-  <si>
-    <t>Frosty Fun</t>
-  </si>
-  <si>
-    <t>SKOL</t>
-  </si>
-  <si>
     <t>Double Win</t>
   </si>
   <si>
-    <t>2019-02-05</t>
-  </si>
-  <si>
     <t>$3.00 Games</t>
   </si>
   <si>
@@ -104,12 +98,12 @@
     <t>Peppermint Cash</t>
   </si>
   <si>
+    <t>Mystery Prize Crossword</t>
+  </si>
+  <si>
     <t>Lots O' Luck</t>
   </si>
   <si>
-    <t>Mystery Prize Crossword</t>
-  </si>
-  <si>
     <t>Chocolate Crossword</t>
   </si>
   <si>
@@ -119,12 +113,6 @@
     <t>Silver Slingo</t>
   </si>
   <si>
-    <t>Ruby Red Crossword</t>
-  </si>
-  <si>
-    <t>Summer Blast</t>
-  </si>
-  <si>
     <t>$5.00 Games</t>
   </si>
   <si>
@@ -158,12 +146,12 @@
     <t>Gold Premium Play</t>
   </si>
   <si>
+    <t>Cash Flurries</t>
+  </si>
+  <si>
     <t>Frogger</t>
   </si>
   <si>
-    <t>Cash Flurries</t>
-  </si>
-  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
@@ -195,9 +183,6 @@
   </si>
   <si>
     <t>Super Bonus Crossword</t>
-  </si>
-  <si>
-    <t>$50,000 Jackpot</t>
   </si>
   <si>
     <t>$50.00 Games</t>
@@ -542,7 +527,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +589,7 @@
         <v>733</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -640,11 +625,11 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>689</v>
+      <c r="D5" t="s">
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -658,13 +643,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
         <v>14</v>
       </c>
+      <c r="D6">
+        <v>689</v>
+      </c>
       <c r="E6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -675,19 +660,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>621</v>
+        <v>737</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -695,16 +680,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
       <c r="D8">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -715,16 +700,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>728</v>
+        <v>745</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -735,16 +720,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -755,19 +740,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>722</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="D11">
-        <v>734</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -775,13 +760,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="D12">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -795,16 +780,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -815,19 +800,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>650</v>
+        <v>718</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -835,16 +820,16 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -855,16 +840,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16">
-        <v>718</v>
+        <v>748</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -875,16 +860,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="D17">
-        <v>735</v>
+        <v>752</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -895,16 +880,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
       </c>
       <c r="D18">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -915,16 +900,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
       <c r="D19">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -935,16 +920,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
       </c>
       <c r="D20">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -955,19 +940,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -975,19 +960,19 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -995,19 +980,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23">
-        <v>711</v>
+        <v>725</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1015,19 +1000,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>714</v>
+        <v>730</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1035,16 +1020,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25">
-        <v>723</v>
+        <v>749</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1055,16 +1040,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
       </c>
       <c r="D26">
-        <v>724</v>
+        <v>750</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1075,16 +1060,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
       </c>
       <c r="D27">
-        <v>725</v>
+        <v>747</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2102</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1095,16 +1080,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28">
-        <v>730</v>
+        <v>744</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1115,16 +1100,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
       </c>
       <c r="D29">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1135,16 +1120,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
       </c>
       <c r="D30">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1155,16 +1140,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
       </c>
       <c r="D31">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="E31">
-        <v>2312</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1175,19 +1160,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
       </c>
       <c r="D32">
-        <v>744</v>
+        <v>688</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1195,16 +1180,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33">
-        <v>741</v>
+        <v>700</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1215,16 +1200,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D34">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1235,16 +1220,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D35">
-        <v>688</v>
+        <v>751</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1255,13 +1240,13 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D36">
-        <v>736</v>
+        <v>704</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1275,13 +1260,13 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
       </c>
       <c r="D37">
-        <v>700</v>
+        <v>726</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1295,16 +1280,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D38">
-        <v>721</v>
+        <v>746</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1315,16 +1300,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D39">
-        <v>751</v>
+        <v>719</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1335,16 +1320,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D40">
-        <v>704</v>
+        <v>742</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1355,13 +1340,13 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D41">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1375,118 +1360,18 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D42">
-        <v>746</v>
+        <v>698</v>
       </c>
       <c r="E42">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43">
-        <v>719</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44">
-        <v>742</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-      <c r="F44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45">
-        <v>712</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46">
-        <v>705</v>
-      </c>
-      <c r="E46">
-        <v>5</v>
-      </c>
-      <c r="F46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47">
-        <v>698</v>
-      </c>
-      <c r="E47">
-        <v>66</v>
-      </c>
-      <c r="F47" t="s">
         <v>9</v>
       </c>
     </row>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_MN.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_MN.xlsx
@@ -44,22 +44,28 @@
     <t>Aces High</t>
   </si>
   <si>
-    <t>2019-03-12</t>
+    <t>2019-04-11</t>
+  </si>
+  <si>
+    <t>Loon Loot</t>
+  </si>
+  <si>
+    <t>Grumpy Cat</t>
+  </si>
+  <si>
+    <t>5x The Cash</t>
+  </si>
+  <si>
+    <t>982(r)</t>
+  </si>
+  <si>
+    <t>Loose Change</t>
   </si>
   <si>
     <t>Naughty or Nice</t>
   </si>
   <si>
-    <t>Grumpy Cat</t>
-  </si>
-  <si>
-    <t>5x The Cash</t>
-  </si>
-  <si>
-    <t>982(r)</t>
-  </si>
-  <si>
-    <t>Loose Change</t>
+    <t>2019-04-04</t>
   </si>
   <si>
     <t>$2.00 Games</t>
@@ -74,15 +80,12 @@
     <t>Lucky Dog</t>
   </si>
   <si>
+    <t>Honey Money</t>
+  </si>
+  <si>
     <t>Frosty Fun</t>
   </si>
   <si>
-    <t>SKOL</t>
-  </si>
-  <si>
-    <t>2019-03-07</t>
-  </si>
-  <si>
     <t>Double Win</t>
   </si>
   <si>
@@ -92,73 +95,70 @@
     <t>10X Bingo</t>
   </si>
   <si>
+    <t>Peppermint Cash</t>
+  </si>
+  <si>
     <t>Crazy Crossword</t>
   </si>
   <si>
-    <t>Peppermint Cash</t>
-  </si>
-  <si>
     <t>Mystery Prize Crossword</t>
   </si>
   <si>
+    <t>Lucky Lakes Crossword</t>
+  </si>
+  <si>
     <t>Lots O' Luck</t>
   </si>
   <si>
+    <t>Silver Slingo</t>
+  </si>
+  <si>
     <t>Chocolate Crossword</t>
   </si>
   <si>
     <t>Crossword Party</t>
   </si>
   <si>
-    <t>Silver Slingo</t>
-  </si>
-  <si>
     <t>$5.00 Games</t>
   </si>
   <si>
-    <t>Minnesota Vikings</t>
-  </si>
-  <si>
-    <t>Special Edition Crossword</t>
-  </si>
-  <si>
     <t>Lucky Bucks</t>
   </si>
   <si>
+    <t>Money Tree</t>
+  </si>
+  <si>
     <t>Power 5s</t>
   </si>
   <si>
+    <t>Triple Bonus Crossword</t>
+  </si>
+  <si>
     <t>7 Series</t>
   </si>
   <si>
-    <t>Triple Bonus Crossword</t>
-  </si>
-  <si>
     <t>Full of $500s</t>
   </si>
   <si>
+    <t>Bold North</t>
+  </si>
+  <si>
     <t>$100,000 Crossword</t>
   </si>
   <si>
-    <t>Bold North</t>
+    <t>Cash Flurries</t>
   </si>
   <si>
     <t>Gold Premium Play</t>
   </si>
   <si>
-    <t>Cash Flurries</t>
-  </si>
-  <si>
-    <t>Frogger</t>
-  </si>
-  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
+    <t>Lucky Lines Jackpot</t>
+  </si>
+  <si>
     <t>Minnesota Treasures</t>
-  </si>
-  <si>
-    <t>Lucky Lines Jackpot</t>
   </si>
   <si>
     <t>$200,000 Money Maker</t>
@@ -586,10 +586,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>733</v>
+        <v>753</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -609,7 +609,7 @@
         <v>729</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -629,7 +629,7 @@
         <v>13</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -660,19 +660,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7">
+        <v>733</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
         <v>16</v>
-      </c>
-      <c r="D7">
-        <v>737</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -680,16 +680,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -700,16 +700,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -720,16 +720,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>734</v>
+        <v>745</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -740,19 +740,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>722</v>
+        <v>754</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -760,19 +760,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="D12">
-        <v>717</v>
+        <v>734</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -780,16 +780,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
       <c r="D13">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -800,13 +800,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -820,7 +820,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -840,16 +840,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16">
-        <v>748</v>
+        <v>718</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -860,13 +860,13 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="D17">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -880,16 +880,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
       </c>
       <c r="D18">
-        <v>731</v>
+        <v>755</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -900,16 +900,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
       <c r="D19">
-        <v>739</v>
+        <v>752</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -920,7 +920,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
@@ -940,19 +940,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
         <v>32</v>
       </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
       <c r="D21">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -960,19 +960,19 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -980,7 +980,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
@@ -1000,16 +1000,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24">
-        <v>730</v>
+        <v>756</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1020,19 +1020,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25">
-        <v>749</v>
+        <v>730</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1040,7 +1040,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
@@ -1049,7 +1049,7 @@
         <v>750</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1060,16 +1060,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
       </c>
       <c r="D27">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E27">
-        <v>2102</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1080,16 +1080,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1088</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1100,7 +1100,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
@@ -1120,13 +1120,13 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
       </c>
       <c r="D30">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1140,7 +1140,7 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
@@ -1160,19 +1160,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
       </c>
       <c r="D32">
-        <v>688</v>
+        <v>738</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1186,7 +1186,7 @@
         <v>46</v>
       </c>
       <c r="D33">
-        <v>700</v>
+        <v>721</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1206,7 +1206,7 @@
         <v>47</v>
       </c>
       <c r="D34">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         <v>746</v>
       </c>
       <c r="E38">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1369,7 +1369,7 @@
         <v>698</v>
       </c>
       <c r="E42">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
